--- a/biology/Mycologie/Lactarius_salmonicolor/Lactarius_salmonicolor.xlsx
+++ b/biology/Mycologie/Lactarius_salmonicolor/Lactarius_salmonicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lactarius salmonicolor
 Le Lactaire couleur saumon ou Lactaire saumon (Lactarius salmonicolor) est un champignon basidiomycète de la famille des Russulaceae de la sectio deliciosi. Ce Lactaire orangé au lait abondant associé aux Sapins sur l'ensemble de l'écozone holarctique. En Europe, il est assez commun en automne et est associé au Sapin blanc.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lactaire couleur saumon produit un sporophore au chapeau mesurant un diamètre de 6 à 15 cm environ, à la forme d'un entonnoir se creusant avec l'âge. Sa cuticule est très fine et à peine séparable sur 1 cm. Il est doté de cercles concentriques minces, orangés ou plus clair. On constate une absence totale de taches vertes contrairement au lactaire de l'épicéa ou lactaire délicieux. Son pied mesure 2 à 10 cm de haut, pour un diamètre maximum de 2 à 4 cm. Il est cylindrique et très vite creux. Il s'atténue à la base et est de couleur identique au chapeau. Il est souvent garni de fossettes et ne présente jamais de taches vertes. Ses lames du lactaire couleur saumon sont orange, serrées, adnées-décurrentes, inégales et d'une largeur de 7 mm environ. Sa chair est orange à rouge, sauf au centre du pied souvent couleur blanc. Son lait orangé est assez abondant, son goût piquant ou astringent et son odeur agréablement fruitée[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lactaire couleur saumon produit un sporophore au chapeau mesurant un diamètre de 6 à 15 cm environ, à la forme d'un entonnoir se creusant avec l'âge. Sa cuticule est très fine et à peine séparable sur 1 cm. Il est doté de cercles concentriques minces, orangés ou plus clair. On constate une absence totale de taches vertes contrairement au lactaire de l'épicéa ou lactaire délicieux. Son pied mesure 2 à 10 cm de haut, pour un diamètre maximum de 2 à 4 cm. Il est cylindrique et très vite creux. Il s'atténue à la base et est de couleur identique au chapeau. Il est souvent garni de fossettes et ne présente jamais de taches vertes. Ses lames du lactaire couleur saumon sont orange, serrées, adnées-décurrentes, inégales et d'une largeur de 7 mm environ. Sa chair est orange à rouge, sauf au centre du pied souvent couleur blanc. Son lait orangé est assez abondant, son goût piquant ou astringent et son odeur agréablement fruitée,.
 	Lactarius salmonicolor, le Lactaire couleur saumon
 			Exemplaires du Mexique
 			Coupe verticale
@@ -547,10 +561,12 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lactaire couleur saumon se distingue facilement des autres lactaire par sa localisation au pied des Sapins blancs. Le lactaire délicieux peut être assez similaire, ayant également un pied tacheté et un chapeau doté de cercles concentriques. Cependant, la chair et le lait du Lactaire délicieux sont tout à fait doux, et son lait ne prend pas une couleur cognac. De plus, contrairement au lactaire couleur saumon, il est en association avec les Pins[3].
-Le Lactaire de l'Épicéa, similaire et beaucoup plus courant, pousse, comme son nom l'indique, sous les Épicéas. Sa chair se colore également d'une couleur cognac. Cependant, le pied du lactaire de l'Épicéa est unicolore et non tachetée. Contrairement au Lactaire couleur saumon, les sporophores du Lactaire de l'épicéa prennent une couleur verte intense lorsqu'elles sont vieilles ou blessées. Son lait, qui a d'abord un goût doux, devient amer au bout d'un certain temps et devient rouge-violet au bout de 30 minutes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lactaire couleur saumon se distingue facilement des autres lactaire par sa localisation au pied des Sapins blancs. Le lactaire délicieux peut être assez similaire, ayant également un pied tacheté et un chapeau doté de cercles concentriques. Cependant, la chair et le lait du Lactaire délicieux sont tout à fait doux, et son lait ne prend pas une couleur cognac. De plus, contrairement au lactaire couleur saumon, il est en association avec les Pins.
+Le Lactaire de l'Épicéa, similaire et beaucoup plus courant, pousse, comme son nom l'indique, sous les Épicéas. Sa chair se colore également d'une couleur cognac. Cependant, le pied du lactaire de l'Épicéa est unicolore et non tachetée. Contrairement au Lactaire couleur saumon, les sporophores du Lactaire de l'épicéa prennent une couleur verte intense lorsqu'elles sont vieilles ou blessées. Son lait, qui a d'abord un goût doux, devient amer au bout d'un certain temps et devient rouge-violet au bout de 30 minutes.
 	Lactaires ressemblants
 			L. deliciosus, le Lactaire délicieux
 			Lactaire délicieux
@@ -584,10 +600,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lactaire couleur saumon, comme tous les Lactaires, est un champignon mycorhizien qui est en association avec les Sapins. En Europe occidentale et centrale, il forme presque exclusivement un partenariat avec le Sapin blanc. Comme le champignon suit son hôte, on le trouve dans les forêts de Sapins, ainsi que dans les forêts mêlant hêtres et sapins. On le trouve aussi occasionnellement le long des chemins forestiers ou dans les parcs avec des Sapins plantés[2],[3]. Au Mexique, il est en association avec Abies religiosa[4].
-Le Lactaire couleur saumon apprécie les sols frais, alcalins et riches en nutriments. On le trouve donc au-dessus des marnes calcaires, des sols argileux et des sables, mais aussi au-dessus de roches magmatiques plus alcalines comme le basalte, le granite riche en feldspath et le gneiss. Contrairement au Lactaire de l'Épicéa, il préfère les arbres matures et vieux. Il est donc rarement présent dans les jeunes plantations, mais d'autant plus fréquemment dans les forêts avec des populations d'arbres moyennes à âgées. Les sporophores apparaissent principalement en automne mais peut être trouvé dès le mois de juillet[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lactaire couleur saumon, comme tous les Lactaires, est un champignon mycorhizien qui est en association avec les Sapins. En Europe occidentale et centrale, il forme presque exclusivement un partenariat avec le Sapin blanc. Comme le champignon suit son hôte, on le trouve dans les forêts de Sapins, ainsi que dans les forêts mêlant hêtres et sapins. On le trouve aussi occasionnellement le long des chemins forestiers ou dans les parcs avec des Sapins plantés,. Au Mexique, il est en association avec Abies religiosa.
+Le Lactaire couleur saumon apprécie les sols frais, alcalins et riches en nutriments. On le trouve donc au-dessus des marnes calcaires, des sols argileux et des sables, mais aussi au-dessus de roches magmatiques plus alcalines comme le basalte, le granite riche en feldspath et le gneiss. Contrairement au Lactaire de l'Épicéa, il préfère les arbres matures et vieux. Il est donc rarement présent dans les jeunes plantations, mais d'autant plus fréquemment dans les forêts avec des populations d'arbres moyennes à âgées. Les sporophores apparaissent principalement en automne mais peut être trouvé dès le mois de juillet.
 </t>
         </is>
       </c>
@@ -616,10 +634,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lactaire couleur saumon se rencontre sur l'ensemble de l'écozone holarctique[1] c'est-à-dire en Amérique du Nord, en Europe, en Afrique du Nord et en Asie. 
-En Europe, son aire de répartition correspond essentiellement à celle, carpato-alpine, du Sapin blanc,  parfois également près de Sapins plantés. On le trouve principalement dans l'espace alpin, de l'Est de la France à la Slovénie. En dehors des Alpes, l'espèce est présente dans les Vosges, la Forêt-Noire, le Jura français et suisse et le Massif central. On le trouve également dans les Carpates en République tchèque et en Slovaquie[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lactaire couleur saumon se rencontre sur l'ensemble de l'écozone holarctique c'est-à-dire en Amérique du Nord, en Europe, en Afrique du Nord et en Asie. 
+En Europe, son aire de répartition correspond essentiellement à celle, carpato-alpine, du Sapin blanc,  parfois également près de Sapins plantés. On le trouve principalement dans l'espace alpin, de l'Est de la France à la Slovénie. En dehors des Alpes, l'espèce est présente dans les Vosges, la Forêt-Noire, le Jura français et suisse et le Massif central. On le trouve également dans les Carpates en République tchèque et en Slovaquie.
 </t>
         </is>
       </c>
@@ -648,9 +668,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lactaire couleur saumon est considéré comme sans intérêt par Eyssartier et Roux[3] bien qu'il soit régulièrement consommé dans quelques pays comme en Turquie[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lactaire couleur saumon est considéré comme sans intérêt par Eyssartier et Roux bien qu'il soit régulièrement consommé dans quelques pays comme en Turquie.
 </t>
         </is>
       </c>
